--- a/output/iscod.xlsx
+++ b/output/iscod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -681,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ74"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +699,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,10 +808,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -901,15 +919,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>232197</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1008,15 +1035,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>30485</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1115,15 +1151,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>61364</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1222,15 +1267,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>36192</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1329,15 +1383,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>123216</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1436,15 +1499,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>69372</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1543,15 +1615,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>277025</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1650,15 +1731,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>127062</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1757,15 +1847,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>590286</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1864,15 +1963,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1971,15 +2079,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>97655</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2078,15 +2195,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>244855</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2185,15 +2311,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>239942</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2292,15 +2427,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>155980</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2399,15 +2543,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>346694</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2506,15 +2659,24 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>60000</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2613,15 +2775,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2720,15 +2891,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>49916</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2827,15 +3007,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>27453.75</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2934,15 +3123,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3041,15 +3239,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3148,15 +3355,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3255,15 +3471,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3362,15 +3587,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3469,15 +3703,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3576,15 +3819,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>27453.75</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3683,15 +3935,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3790,15 +4051,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3897,15 +4167,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4004,15 +4283,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4111,15 +4399,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4218,15 +4515,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4325,15 +4631,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4432,15 +4747,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4539,15 +4863,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4646,15 +4979,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4753,15 +5095,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4860,15 +5211,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4967,15 +5327,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5074,15 +5443,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5181,15 +5559,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5288,15 +5675,24 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>27453.75</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5395,15 +5791,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>13061</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5502,15 +5907,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>8811.225</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5609,15 +6023,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>191267.525</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5716,15 +6139,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>5933.33</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5823,15 +6255,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>11021.1</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5930,15 +6371,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>108727.635</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6037,15 +6487,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>33630.845</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6144,15 +6603,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>9500</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6251,15 +6719,24 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>18735.335</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6358,15 +6835,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>13061</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6465,15 +6951,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>8811.225</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6572,15 +7067,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>191267.525</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6679,15 +7183,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>1</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>5933.33</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6786,15 +7299,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>11021.1</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6893,15 +7415,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>108727.635</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7000,15 +7531,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>33630.845</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7107,15 +7647,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7214,15 +7763,24 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>18735.335</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7321,15 +7879,24 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>14259.2</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7428,15 +7995,24 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>102585.95</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7535,15 +8111,24 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>66805.53</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7642,15 +8227,24 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>24673.145</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7749,15 +8343,24 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7856,15 +8459,24 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>14259.2</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7963,15 +8575,24 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>102585.95</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8070,15 +8691,24 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>66805.53</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8177,15 +8807,24 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>24673.145</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8284,15 +8923,24 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8391,15 +9039,24 @@
         <v>0.6610312121446429</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>136424</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8498,15 +9155,24 @@
         <v>0.6610312121446429</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>95011</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8605,9 +9271,18 @@
         <v>0.6610312121446429</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>81508</v>
       </c>
     </row>

--- a/output/iscod.xlsx
+++ b/output/iscod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -690,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +705,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,10 +823,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -919,24 +931,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI2">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ2">
         <v>1990</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>232197</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1035,24 +1053,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI3">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ3">
         <v>1990</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>30485</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1151,24 +1175,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI4">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ4">
         <v>1990</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>61364</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1267,24 +1297,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI5">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ5">
         <v>1990</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>36192</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1383,24 +1419,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI6">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ6">
         <v>1990</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>123216</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1499,24 +1541,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI7">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ7">
         <v>1990</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>69372</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1615,24 +1663,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI8">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ8">
         <v>1990</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>277025</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1731,24 +1785,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI9">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ9">
         <v>1990</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>127062</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1847,24 +1907,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI10">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ10">
         <v>1990</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>590286</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1963,24 +2029,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI11">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ11">
         <v>1990</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>60000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2079,24 +2151,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI12">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ12">
         <v>1990</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>97655</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2195,24 +2273,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI13">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ13">
         <v>1990</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>244855</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2311,24 +2395,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI14">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ14">
         <v>1990</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>239942</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2427,24 +2517,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI15">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ15">
         <v>1990</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>155980</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2543,24 +2639,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI16">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ16">
         <v>1990</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>346694</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2659,24 +2761,30 @@
         <v>0.08594490102730502</v>
       </c>
       <c r="AI17">
+        <v>0.4613249418776126</v>
+      </c>
+      <c r="AJ17">
         <v>1990</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>60000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2775,24 +2883,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI18">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ18">
         <v>1990</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2891,24 +3005,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI19">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ19">
         <v>1990</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>49916</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3007,24 +3127,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI20">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ20">
         <v>1990</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>27453.75</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3123,24 +3249,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI21">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ21">
         <v>1990</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3239,24 +3371,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI22">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ22">
         <v>1990</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3355,24 +3493,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI23">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ23">
         <v>1990</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3471,24 +3615,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI24">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ24">
         <v>1990</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3587,24 +3737,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI25">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ25">
         <v>1990</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3703,24 +3859,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI26">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ26">
         <v>1990</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3819,24 +3981,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI27">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ27">
         <v>1990</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>27453.75</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3935,24 +4103,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI28">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ28">
         <v>1990</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4051,24 +4225,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI29">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ29">
         <v>1990</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4167,24 +4347,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI30">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ30">
         <v>1990</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4283,24 +4469,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI31">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ31">
         <v>1990</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4399,24 +4591,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI32">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ32">
         <v>1990</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4515,24 +4713,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI33">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ33">
         <v>1990</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4631,24 +4835,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI34">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ34">
         <v>1990</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4747,24 +4957,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI35">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ35">
         <v>1990</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>122537.1875</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4863,24 +5079,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI36">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ36">
         <v>1990</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4979,24 +5201,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI37">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ37">
         <v>1990</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5095,24 +5323,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI38">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ38">
         <v>1990</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>32395.5</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5211,24 +5445,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI39">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ39">
         <v>1990</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5327,24 +5567,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI40">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ40">
         <v>1990</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5443,24 +5689,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI41">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ41">
         <v>1990</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5559,24 +5811,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI42">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ42">
         <v>1990</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>195793.4</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5675,24 +5933,30 @@
         <v>0.2122339556311633</v>
       </c>
       <c r="AI43">
+        <v>0.1935972320281909</v>
+      </c>
+      <c r="AJ43">
         <v>1990</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>27453.75</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5791,24 +6055,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI44">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ44">
         <v>1990</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>13061</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5907,24 +6177,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI45">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ45">
         <v>1990</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>8811.225</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6023,24 +6299,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI46">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ46">
         <v>1990</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>191267.525</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6139,24 +6421,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI47">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ47">
         <v>1990</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>5933.33</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6255,24 +6543,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI48">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ48">
         <v>1990</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>11021.1</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6371,24 +6665,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI49">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ49">
         <v>1990</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>108727.635</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6487,24 +6787,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI50">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ50">
         <v>1990</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>33630.845</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6603,24 +6909,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI51">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ51">
         <v>1990</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>9500</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6719,24 +7031,30 @@
         <v>0.2738409717591248</v>
       </c>
       <c r="AI52">
+        <v>0.3884606344261823</v>
+      </c>
+      <c r="AJ52">
         <v>1990</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>18735.335</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6835,24 +7153,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI53">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ53">
         <v>1990</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>13061</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6951,24 +7275,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI54">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ54">
         <v>1990</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>8811.225</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7067,24 +7397,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI55">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ55">
         <v>1990</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>191267.525</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7183,24 +7519,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI56">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ56">
         <v>1990</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>1</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>5933.33</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7299,24 +7641,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI57">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ57">
         <v>1990</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>11021.1</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7415,24 +7763,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI58">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ58">
         <v>1990</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL58">
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>108727.635</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7531,24 +7885,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI59">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ59">
         <v>1990</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>33630.845</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7647,24 +8007,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI60">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ60">
         <v>1990</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>9500</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7763,24 +8129,30 @@
         <v>0.3508678515054284</v>
       </c>
       <c r="AI61">
+        <v>0.184255222396158</v>
+      </c>
+      <c r="AJ61">
         <v>1990</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>18735.335</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7879,24 +8251,30 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI62">
+        <v>0.0810693298034786</v>
+      </c>
+      <c r="AJ62">
         <v>1990</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>14259.2</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7995,24 +8373,30 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI63">
+        <v>0.0810693298034786</v>
+      </c>
+      <c r="AJ63">
         <v>1990</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>102585.95</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8111,24 +8495,30 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI64">
+        <v>0.0810693298034786</v>
+      </c>
+      <c r="AJ64">
         <v>1990</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>66805.53</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8227,24 +8617,30 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI65">
+        <v>0.0810693298034786</v>
+      </c>
+      <c r="AJ65">
         <v>1990</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>24673.145</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8343,24 +8739,30 @@
         <v>0.5558298547325135</v>
       </c>
       <c r="AI66">
+        <v>0.0810693298034786</v>
+      </c>
+      <c r="AJ66">
         <v>1990</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8459,24 +8861,30 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI67">
+        <v>0.1825951017961218</v>
+      </c>
+      <c r="AJ67">
         <v>1990</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>14259.2</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8575,24 +8983,30 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI68">
+        <v>0.1825951017961218</v>
+      </c>
+      <c r="AJ68">
         <v>1990</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>102585.95</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8691,24 +9105,30 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI69">
+        <v>0.1825951017961218</v>
+      </c>
+      <c r="AJ69">
         <v>1990</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>66805.53</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8807,24 +9227,30 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI70">
+        <v>0.1825951017961218</v>
+      </c>
+      <c r="AJ70">
         <v>1990</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>24673.145</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8923,24 +9349,30 @@
         <v>0.5758123489156113</v>
       </c>
       <c r="AI71">
+        <v>0.1825951017961218</v>
+      </c>
+      <c r="AJ71">
         <v>1990</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9039,24 +9471,30 @@
         <v>0.6610312121446429</v>
       </c>
       <c r="AI72">
+        <v>0.01127219773705508</v>
+      </c>
+      <c r="AJ72">
         <v>1990</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>136424</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9155,24 +9593,30 @@
         <v>0.6610312121446429</v>
       </c>
       <c r="AI73">
+        <v>0.01127219773705508</v>
+      </c>
+      <c r="AJ73">
         <v>1990</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>95011</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9271,18 +9715,24 @@
         <v>0.6610312121446429</v>
       </c>
       <c r="AI74">
+        <v>0.01127219773705508</v>
+      </c>
+      <c r="AJ74">
         <v>1990</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>81508</v>
       </c>
     </row>

--- a/output/iscod.xlsx
+++ b/output/iscod.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2930</v>
+        <v>2839.92516805933</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1170</v>
+        <v>1610.923908476106</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6720</v>
+        <v>6967.266654334572</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D13">
         <v>500000</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10440</v>
+        <v>11992.01662617741</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3000</v>
+        <v>2948.84548976845</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8510</v>
+        <v>8841.561277324312</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D25">
         <v>345000</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>8000</v>
+        <v>8390.479071096475</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>6920</v>
+        <v>6947.966251196303</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>11980</v>
+        <v>14179.19231490798</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D31">
         <v>394258</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D32">
         <v>500000</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4742,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>12340</v>
+        <v>13455.83781255333</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>10710</v>
+        <v>10883.31535948899</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1310</v>
+        <v>1263.452411343738</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>3990</v>
+        <v>4022.237688257</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5596,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1240</v>
+        <v>1629.435089125503</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5718,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>4600</v>
+        <v>4524.720276132375</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>12060</v>
+        <v>12574.90356995006</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2980</v>
+        <v>2995.45235738661</v>
       </c>
       <c r="D44">
         <v>266653</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D46">
         <v>345000</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D50">
         <v>394258</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>12360</v>
+        <v>11745.7759262897</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3090</v>
+        <v>3087.12349650562</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>12810</v>
+        <v>11993.48398487312</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D64">
         <v>240000</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM66">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM71">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9622,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM74">
         <v>0</v>

--- a/output/iscod.xlsx
+++ b/output/iscod.xlsx
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>6711.616186806423</v>
       </c>
       <c r="D32">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>244855</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>3156.723844635973</v>
       </c>
       <c r="D46">
-        <v>345000</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>32395.5</v>
@@ -6697,7 +6697,7 @@
         <v>5122.180090208862</v>
       </c>
       <c r="D50">
-        <v>394258</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>32395.5</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>13061</v>
+        <v>195793.4</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7182,13 +7182,13 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>8811.225</v>
+        <v>49916</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>191267.525</v>
+        <v>32395.5</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>5933.33</v>
+        <v>32395.5</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>11021.1</v>
+        <v>32395.5</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>108727.635</v>
+        <v>32395.5</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>33630.845</v>
+        <v>32395.5</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>9500</v>
+        <v>122537.1875</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>18735.335</v>
+        <v>32395.5</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>14259.2</v>
+        <v>11021.1</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>102585.95</v>
+        <v>18735.335</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>66805.53</v>
+        <v>108727.635</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>24673.145</v>
+        <v>5933.33</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
